--- a/InputData/indst/FLRbI/Foreign Leakage Rate by Industry.xlsx
+++ b/InputData/indst/FLRbI/Foreign Leakage Rate by Industry.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\FLRbI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="22035" windowHeight="9270"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SourceData" sheetId="2" r:id="rId2"/>
     <sheet name="FLRbI" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>Source:</t>
   </si>
@@ -301,12 +306,36 @@
   </si>
   <si>
     <t>How to Interpret Leakage Components from the RFF Table</t>
+  </si>
+  <si>
+    <t>For every unit of CO2e not emitted in this country as a result of the modeled policy package, a fraction</t>
+  </si>
+  <si>
+    <t>of a unit of CO2e is emitted in a foreign country. This may be due to businesses relocating or opening</t>
+  </si>
+  <si>
+    <t>elsewhere rather than in this country, or it may be due to changes in production levels of existing</t>
+  </si>
+  <si>
+    <t>businesses. These leakage rates were determined via a computer model based on a carbon tax, so</t>
+  </si>
+  <si>
+    <t>leakage can be negative if a foreign firm has a lower carbon intensity than a U.S. firm when</t>
+  </si>
+  <si>
+    <t>producing a particular good (this is the case for natural gas and coal), or if imports to the U.S. are</t>
+  </si>
+  <si>
+    <t>reduced (this is the case for oil).</t>
+  </si>
+  <si>
+    <t>Leakage Rate (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -383,7 +412,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -404,11 +433,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -420,6 +450,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -468,7 +501,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,7 +536,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,22 +745,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.3984375" customWidth="1"/>
+    <col min="3" max="3" width="26.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,255 +770,293 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="A14" r:id="rId2" location=".UyvL5fldWE8"/>
+    <hyperlink ref="A22" r:id="rId2" location=".UyvL5fldWE8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -996,24 +1069,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.265625" customWidth="1"/>
+    <col min="2" max="3" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="17.86328125" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1036,7 +1109,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1062,7 +1135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +1161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1114,7 +1187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1166,7 +1239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1190,7 +1263,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1214,7 +1287,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1238,7 +1311,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1262,7 +1335,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1288,7 +1361,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1314,7 +1387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1340,7 +1413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1366,7 +1439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1418,7 +1491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1442,7 +1515,7 @@
         <v>5.884174667079591E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1466,7 +1539,7 @@
         <v>-0.20980392156862746</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1490,7 +1563,7 @@
         <v>-0.62931034482758619</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1514,7 +1587,7 @@
         <v>-1.9602803738317758</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1538,7 +1611,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1562,7 +1635,7 @@
         <v>3.0687218761237403E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1586,7 +1659,7 @@
         <v>1.5285845307245491E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1610,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1634,7 +1707,7 @@
         <v>-7.3488884806173071E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1658,7 +1731,7 @@
         <v>6.0357972966971145E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1682,7 +1755,7 @@
         <v>1.7241379310344827E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1706,7 +1779,7 @@
         <v>-3.6275695284159614E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1730,7 +1803,7 @@
         <v>1.2755958375293723E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -1750,23 +1823,25 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
@@ -1775,7 +1850,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -1784,7 +1859,7 @@
         <v>-2.2577713143064896E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
@@ -1793,7 +1868,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>45</v>
       </c>
@@ -1802,7 +1877,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1811,7 +1886,7 @@
         <v>-0.18809980806142035</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>46</v>
       </c>
@@ -1819,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
@@ -1828,7 +1903,7 @@
         <v>5.884174667079591E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
